--- a/tests/files/valid.xlsx
+++ b/tests/files/valid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://elocity-my.sharepoint.com/personal/patryk_skibniewski_elo_city/Documents/Dokumenty/01. Google Cloud/1. Skrypty/excel-lib/tests/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://elocity-my.sharepoint.com/personal/patryk_skibniewski_elo_city/Documents/Dokumenty/01. Google Cloud/3. Pliki testowe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{BD648FC0-4FCF-4965-A90B-AADE843C58E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC56E8AB-897F-4A79-8EE3-D397AD371568}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{BD648FC0-4FCF-4965-A90B-AADE843C58E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD0660A7-5F95-45E9-89EE-2166850DDB62}"/>
   <bookViews>
-    <workbookView xWindow="-10455" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formularz" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
   <si>
     <t>Lp</t>
   </si>
@@ -191,6 +191,9 @@
     <t>Punkt 4 - moc</t>
   </si>
   <si>
+    <t>Patryk Skibniewski</t>
+  </si>
+  <si>
     <t>TEST</t>
   </si>
   <si>
@@ -275,14 +278,17 @@
     <t>operator@stacji.ladowania</t>
   </si>
   <si>
-    <t>Adam Nijaki</t>
+    <t>Przejęcie własne</t>
+  </si>
+  <si>
+    <t>Czy tylko dodanie do panelu?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -358,6 +364,15 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -457,11 +472,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -553,12 +569,70 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperłącze 2" xfId="2" xr:uid="{8DBFAE8C-C24E-4391-A295-989E15347C1D}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -602,6 +676,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -805,10 +883,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1002"/>
+  <dimension ref="A1:F1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="24" customHeight="1"/>
@@ -845,13 +923,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1">
@@ -862,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1">
@@ -896,132 +974,128 @@
         <v>42</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A6" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24" customHeight="1">
+      <c r="A6" s="33">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24" customHeight="1">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1">
-      <c r="A8" s="12">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="B7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" s="16" customFormat="1" ht="24" customHeight="1">
+      <c r="A8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1">
       <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24" customHeight="1">
+      <c r="A10" s="12">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" customHeight="1">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1">
-      <c r="A10" s="9">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1">
-      <c r="A11" s="12">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24" customHeight="1">
       <c r="A12" s="9">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1">
-      <c r="A13" s="9">
-        <v>7</v>
+      <c r="A13" s="12">
+        <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>63</v>
@@ -1034,262 +1108,269 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="24" customHeight="1">
-      <c r="A14" s="12">
-        <v>8</v>
+      <c r="A14" s="9">
+        <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>64</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="24" customHeight="1">
       <c r="A15" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="24" customHeight="1">
       <c r="A16" s="12">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24" customHeight="1">
+      <c r="A17" s="9">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24" customHeight="1">
+      <c r="A18" s="12">
         <v>11</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="24" customHeight="1">
-      <c r="A17" s="9">
+      <c r="C18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24" customHeight="1">
+      <c r="A19" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1">
-      <c r="A18" s="12">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" ht="24" customHeight="1">
-      <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1">
+    <row r="20" spans="1:5" ht="24" customHeight="1">
       <c r="A20" s="12">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:6" ht="24" customHeight="1">
+    <row r="21" spans="1:5" ht="24" customHeight="1">
       <c r="A21" s="9">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="24" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="24" customHeight="1">
       <c r="A22" s="12">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:6" ht="24" customHeight="1">
+    <row r="23" spans="1:5" ht="24" customHeight="1">
       <c r="A23" s="9">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24" customHeight="1">
+      <c r="A24" s="12">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="24" customHeight="1">
+      <c r="A25" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1">
-      <c r="A24" s="9">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="24" customHeight="1">
+      <c r="A26" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="24" customHeight="1">
-      <c r="A25" s="9">
+      <c r="C26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="24" customHeight="1">
+      <c r="A27" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1">
-      <c r="A26" s="9">
+      <c r="C27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="24" customHeight="1">
+      <c r="A28" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1">
-      <c r="A27" s="12">
+      <c r="C28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24" customHeight="1">
+      <c r="A29" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1">
-      <c r="A28" s="9">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="24" customHeight="1">
+      <c r="A30" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" ht="24" customHeight="1">
-      <c r="A29" s="9">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="24" customHeight="1">
+      <c r="A31" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C31" s="13">
         <v>45626</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D31" s="13">
         <v>45627</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E31" s="13">
         <v>45628</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="24" customHeight="1">
-      <c r="A30" s="12">
+    <row r="32" spans="1:5" ht="24" customHeight="1">
+      <c r="A32" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="19" customFormat="1" ht="24" customHeight="1">
-      <c r="A31" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" s="21" customFormat="1" ht="24" customHeight="1">
-      <c r="A32" s="20">
-        <v>1</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>69</v>
@@ -1301,192 +1382,193 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="21" customFormat="1" ht="24" customHeight="1">
-      <c r="A33" s="20">
-        <v>2</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>70</v>
-      </c>
+    <row r="33" spans="1:6" s="19" customFormat="1" ht="24" customHeight="1">
+      <c r="A33" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" s="21" customFormat="1" ht="24" customHeight="1">
       <c r="A34" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="21" customFormat="1" ht="24" customHeight="1">
       <c r="A35" s="20">
+        <v>2</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="21" customFormat="1" ht="24" customHeight="1">
+      <c r="A36" s="20">
+        <v>4</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="21" customFormat="1" ht="24" customHeight="1">
+      <c r="A37" s="20">
         <v>3</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C37" s="22">
         <v>123456789</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D37" s="22">
         <v>123456789</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E37" s="22">
         <v>123456789</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="19" customFormat="1" ht="24" customHeight="1">
-      <c r="A36" s="29" t="s">
+    <row r="38" spans="1:6" s="19" customFormat="1" ht="24" customHeight="1">
+      <c r="A38" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-    </row>
-    <row r="37" spans="1:6" ht="24" customHeight="1">
-      <c r="A37" s="12">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="24" customHeight="1">
-      <c r="A38" s="12">
-        <v>2</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="9">
-        <v>123456789</v>
-      </c>
-      <c r="D38" s="9">
-        <v>123456789</v>
-      </c>
-      <c r="E38" s="9">
-        <v>123456789</v>
-      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="A39" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="19" customFormat="1" ht="24" customHeight="1">
-      <c r="A40" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+    <row r="40" spans="1:6" ht="24" customHeight="1">
+      <c r="A40" s="12">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="D40" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="E40" s="9">
+        <v>123456789</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="24" customHeight="1">
       <c r="A41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="24" customHeight="1">
-      <c r="A42" s="12">
-        <v>2</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="9">
-        <v>987654321</v>
-      </c>
-      <c r="D42" s="9">
-        <v>987654321</v>
-      </c>
-      <c r="E42" s="9">
-        <v>987654321</v>
-      </c>
+    <row r="42" spans="1:6" s="19" customFormat="1" ht="24" customHeight="1">
+      <c r="A42" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="A43" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="19" customFormat="1" ht="24" customHeight="1">
-      <c r="A44" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+    <row r="44" spans="1:6" ht="24" customHeight="1">
+      <c r="A44" s="12">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="9">
+        <v>987654321</v>
+      </c>
+      <c r="D44" s="9">
+        <v>987654321</v>
+      </c>
+      <c r="E44" s="9">
+        <v>987654321</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1">
       <c r="A45" s="12">
-        <v>1</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>79</v>
@@ -1498,99 +1580,115 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="24" customHeight="1">
-      <c r="A46" s="12">
-        <v>2</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="19" customFormat="1" ht="24" customHeight="1">
-      <c r="A47" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
+    <row r="46" spans="1:6" s="19" customFormat="1" ht="24" customHeight="1">
+      <c r="A46" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1">
+      <c r="A47" s="12">
+        <v>1</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
       <c r="A48" s="12">
-        <v>1</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="24"/>
+        <v>2</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="49" spans="1:6" s="19" customFormat="1" ht="24" customHeight="1">
       <c r="A49" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B49" s="30"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="A50" s="12">
         <v>1</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="24"/>
+    </row>
+    <row r="51" spans="1:6" s="19" customFormat="1" ht="24" customHeight="1">
+      <c r="A51" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="1:6" ht="24" customHeight="1">
+      <c r="A52" s="12">
+        <v>1</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" s="24"/>
-    </row>
-    <row r="51" spans="1:6" ht="24" customHeight="1">
-      <c r="A51" s="12">
+      <c r="C52" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="24"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" customHeight="1">
+      <c r="A53" s="12">
         <v>2</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F51" s="24"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" customHeight="1">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="D52" s="26"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="D53" s="26"/>
+      <c r="C53" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="24"/>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="A54" s="4"/>
@@ -1640,10 +1738,12 @@
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
+      <c r="D63" s="26"/>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
+      <c r="D64" s="26"/>
     </row>
     <row r="65" spans="1:2" ht="24" customHeight="1">
       <c r="A65" s="4"/>
@@ -5397,72 +5497,80 @@
       <c r="A1002" s="4"/>
       <c r="B1002" s="4"/>
     </row>
+    <row r="1003" spans="1:2" ht="24" customHeight="1">
+      <c r="A1003" s="4"/>
+      <c r="B1003" s="4"/>
+    </row>
+    <row r="1004" spans="1:2" ht="24" customHeight="1">
+      <c r="A1004" s="4"/>
+      <c r="B1004" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A46:B46"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="C33:E33">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="C35:E35">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"nie"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"tak"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50:E50">
-    <cfRule type="cellIs" dxfId="1" priority="27" operator="equal">
+  <conditionalFormatting sqref="C52:E52">
+    <cfRule type="cellIs" dxfId="7" priority="31" operator="equal">
       <formula>"nie"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="32" operator="equal">
       <formula>"tak"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C51:E51 C32:E32 C25:E25" xr:uid="{D0EB7994-4F00-49AA-AD90-01CE77DB0F99}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C53:E53 C34:E34 C27:E27 C6:E7" xr:uid="{D0EB7994-4F00-49AA-AD90-01CE77DB0F99}">
       <formula1>"Tak, Nie"</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:E4" xr:uid="{6B50505D-F64B-4B37-8CC7-8FBC51FE03E7}">
       <formula1>TODAY()</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:E15 C17:E17 C19:E19 C13:E13" xr:uid="{71A3D3CB-F282-4F1F-A0B0-8EC95177406B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:E17 C19:E19 C21:E21 C15:E15" xr:uid="{71A3D3CB-F282-4F1F-A0B0-8EC95177406B}">
       <formula1>"IEC-62196-T2-F-NOCABLE (Typ 2), CHADEMO (CHAdeMO), IEC-62196-T2-F-CABLE (Typ 2), IEC-62196-T2-COMBO (CCS Typ 2)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:E24" xr:uid="{15149188-95A7-450C-89F2-8CAAC61431F8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:E26" xr:uid="{15149188-95A7-450C-89F2-8CAAC61431F8}">
       <formula1>"za szlabanem, w garażu podziemnym, z ograniczonym dostępem"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:E26" xr:uid="{B60182A4-4D37-4AD3-A547-FBC5E2D99C25}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:E28" xr:uid="{B60182A4-4D37-4AD3-A547-FBC5E2D99C25}">
       <formula1>"Nie, Tak - drukarnia oklei w biurze, Tak - drukarnia oklei na miejscu, Tak - klient oklei samodzielnie"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:E33" xr:uid="{47B91D0A-F3E7-4E33-AEB2-61A642941F68}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35:E35" xr:uid="{47B91D0A-F3E7-4E33-AEB2-61A642941F68}">
       <formula1>"klient,elocity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46:E46" xr:uid="{5BE2C57A-DE8F-4E21-9AC2-0C62F90E276B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48:E48" xr:uid="{5BE2C57A-DE8F-4E21-9AC2-0C62F90E276B}">
       <formula1>"Ogólnodostępna, Prywatna/nie ogólnodostępna"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50:E50" xr:uid="{631449C9-882E-41FC-8ECC-9F542289279B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C52:E52" xr:uid="{631449C9-882E-41FC-8ECC-9F542289279B}">
       <formula1>"GSM, Wifi, LAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:E11" xr:uid="{A3A4ABC2-0B04-49DE-889F-73040A61A75F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:E13" xr:uid="{A3A4ABC2-0B04-49DE-889F-73040A61A75F}">
       <formula1>"DC, AC"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:E29" xr:uid="{2D4C1821-0672-42E7-BCE3-DED3265ABF41}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:E31" xr:uid="{2D4C1821-0672-42E7-BCE3-DED3265ABF41}">
       <formula1>43831</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C39" r:id="rId1" xr:uid="{9621F90F-AFDA-4524-B87D-D36E86E32B2F}"/>
-    <hyperlink ref="C43" r:id="rId2" xr:uid="{3CAA8A68-89F5-40B1-95D9-B18A042F0FF7}"/>
-    <hyperlink ref="C45" r:id="rId3" xr:uid="{8C67EDEA-AC0B-47BA-B042-E8B0DCCEC69E}"/>
-    <hyperlink ref="D39:E39" r:id="rId4" display="jan.kowalski@mail.com" xr:uid="{99CDCB0F-B1C0-449F-B038-C346183473C5}"/>
-    <hyperlink ref="D43:E43" r:id="rId5" display="jan@kowalski" xr:uid="{85D3ED65-1D2F-4187-851B-81E0502307FD}"/>
-    <hyperlink ref="D45:E45" r:id="rId6" display="operator@stacji.ladowania" xr:uid="{DAC5F367-5138-4FFA-A83D-0BC256682ABE}"/>
+    <hyperlink ref="C41" r:id="rId1" xr:uid="{9621F90F-AFDA-4524-B87D-D36E86E32B2F}"/>
+    <hyperlink ref="C45" r:id="rId2" xr:uid="{3CAA8A68-89F5-40B1-95D9-B18A042F0FF7}"/>
+    <hyperlink ref="C47" r:id="rId3" xr:uid="{8C67EDEA-AC0B-47BA-B042-E8B0DCCEC69E}"/>
+    <hyperlink ref="D41:E41" r:id="rId4" display="jan.kowalski@mail.com" xr:uid="{99CDCB0F-B1C0-449F-B038-C346183473C5}"/>
+    <hyperlink ref="D45:E45" r:id="rId5" display="jan@kowalski" xr:uid="{85D3ED65-1D2F-4187-851B-81E0502307FD}"/>
+    <hyperlink ref="D47:E47" r:id="rId6" display="operator@stacji.ladowania" xr:uid="{DAC5F367-5138-4FFA-A83D-0BC256682ABE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
